--- a/TOSData/RecoverTest/offline.xlsx
+++ b/TOSData/RecoverTest/offline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RProject\tmp\TOSData\RecoverTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AAFE7A-BAB7-4C7A-9673-8ADA37722F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B9B417-69F7-4CA6-93D6-6E93DC671703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="7920" windowWidth="25560" windowHeight="13785" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10170" yWindow="9255" windowWidth="25560" windowHeight="13785" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linux" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Web-new" sheetId="6" r:id="rId4"/>
     <sheet name="Docker-new" sheetId="3" r:id="rId5"/>
     <sheet name="SimOS-new" sheetId="4" r:id="rId6"/>
+    <sheet name="Test" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="15">
   <si>
     <t>正常时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -77,6 +78,30 @@
   </si>
   <si>
     <t>local delta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Without crash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>With crash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1st process</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2nd process</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content recovery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datasets</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -130,12 +155,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -443,19 +471,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -619,19 +647,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -811,19 +839,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -991,19 +1019,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1170,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BBBBF1-EF56-43A4-A0F6-38F3AFAB4DB9}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1180,19 +1208,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1370,19 +1398,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1543,4 +1571,59 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C654DA5-87C6-4153-88FA-3DE3E1C64932}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="18" style="6" customWidth="1"/>
+    <col min="3" max="4" width="12.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>